--- a/TestData/Wonnafoodtestcases.xlsx
+++ b/TestData/Wonnafoodtestcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="8880" windowHeight="4020" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="8880" windowHeight="4020" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PreCondition" sheetId="5" r:id="rId1"/>
@@ -16,14 +16,13 @@
     <sheet name="MerchantView" sheetId="11" r:id="rId7"/>
     <sheet name="CartFunctionality" sheetId="12" r:id="rId8"/>
     <sheet name="AddressFunctionality" sheetId="13" r:id="rId9"/>
-    <sheet name="PlaceOrder" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>Application Name</t>
   </si>
@@ -252,9 +251,6 @@
   </si>
   <si>
     <t xml:space="preserve">LandMark </t>
-  </si>
-  <si>
-    <t>Verifying the Place Order Functionality</t>
   </si>
 </sst>
 </file>
@@ -768,41 +764,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="42">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
@@ -1277,7 +1238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
